--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999999662086142</v>
+        <v>0.9993376189073055</v>
       </c>
       <c r="E3">
-        <v>0.999999662086142</v>
+        <v>0.9993376189073055</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999992471142</v>
+        <v>0.9999999991080499</v>
       </c>
       <c r="E4">
-        <v>0.9999999992471142</v>
+        <v>0.9999999991080499</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7342725165398012</v>
+        <v>0.8671673055247027</v>
       </c>
       <c r="E5">
-        <v>0.7342725165398012</v>
+        <v>0.8671673055247027</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9857395562300971</v>
+        <v>0.9945180849568553</v>
       </c>
       <c r="E6">
-        <v>0.9857395562300971</v>
+        <v>0.9945180849568553</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.925480512780859E-19</v>
+        <v>1.4634860075838E-18</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999930942431</v>
+        <v>0.9999729626206506</v>
       </c>
       <c r="E8">
-        <v>6.905756855246636E-09</v>
+        <v>2.703737934939276E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9046344170730041</v>
+        <v>0.8126159529786328</v>
       </c>
       <c r="E9">
-        <v>0.09536558292699593</v>
+        <v>0.1873840470213672</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.471452128966403E-15</v>
+        <v>4.086794851231971E-16</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999946</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.000119089869078596</v>
+        <v>3.617442584425506E-05</v>
       </c>
       <c r="E11">
-        <v>0.9998809101309214</v>
+        <v>0.9999638255741558</v>
       </c>
       <c r="F11">
-        <v>18.56315040588379</v>
+        <v>15.87427997589111</v>
       </c>
       <c r="G11">
         <v>0.2</v>
